--- a/info_parcelas.xlsx
+++ b/info_parcelas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/200CB6E4CC9825CB/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB5AC3B6-0844-4A4E-A5AC-15C27399DCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B23B2748-0474-4411-BBD6-B7A2AE840BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="163">
   <si>
     <t>Parcela</t>
   </si>
@@ -89,27 +89,33 @@
     <t>P006</t>
   </si>
   <si>
+    <t>Marta Lopez</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>Jhan Norabuena</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
     <t>Marta Romero</t>
   </si>
   <si>
-    <t>P007</t>
-  </si>
-  <si>
-    <t>Jhan Norabuena</t>
-  </si>
-  <si>
-    <t>P008</t>
-  </si>
-  <si>
-    <t>P009</t>
-  </si>
-  <si>
     <t>P010</t>
   </si>
   <si>
     <t>P011</t>
   </si>
   <si>
+    <t>Pedro Romero</t>
+  </si>
+  <si>
     <t>P012</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
     <t>P016</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayda Cáceres </t>
+  </si>
+  <si>
     <t>P017</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
     <t>P024</t>
   </si>
   <si>
+    <t>Ericka Huamán</t>
+  </si>
+  <si>
     <t>P025</t>
   </si>
   <si>
@@ -173,6 +185,9 @@
     <t>P028</t>
   </si>
   <si>
+    <t>Santiago Ramos</t>
+  </si>
+  <si>
     <t>P029</t>
   </si>
   <si>
@@ -221,6 +236,9 @@
     <t>P041</t>
   </si>
   <si>
+    <t>Luana Quispe</t>
+  </si>
+  <si>
     <t>P042</t>
   </si>
   <si>
@@ -233,6 +251,9 @@
     <t>P045</t>
   </si>
   <si>
+    <t>Teresa Poma</t>
+  </si>
+  <si>
     <t>P046</t>
   </si>
   <si>
@@ -248,12 +269,18 @@
     <t>P050</t>
   </si>
   <si>
+    <t>Luis Rivadeneyra</t>
+  </si>
+  <si>
     <t>P051</t>
   </si>
   <si>
     <t>P052</t>
   </si>
   <si>
+    <t>Andrea Acosta</t>
+  </si>
+  <si>
     <t>P053</t>
   </si>
   <si>
@@ -272,6 +299,9 @@
     <t>P058</t>
   </si>
   <si>
+    <t>Mariela Campos</t>
+  </si>
+  <si>
     <t>P059</t>
   </si>
   <si>
@@ -287,6 +317,9 @@
     <t>P063</t>
   </si>
   <si>
+    <t>Jhutid Ramos</t>
+  </si>
+  <si>
     <t>P064</t>
   </si>
   <si>
@@ -299,6 +332,9 @@
     <t>P067</t>
   </si>
   <si>
+    <t>Valeria Zuñiga</t>
+  </si>
+  <si>
     <t>P068</t>
   </si>
   <si>
@@ -338,12 +374,21 @@
     <t>P079</t>
   </si>
   <si>
+    <t>Luis Rodrigo</t>
+  </si>
+  <si>
     <t>P080</t>
   </si>
   <si>
+    <t>Algel Livisi</t>
+  </si>
+  <si>
     <t>P081</t>
   </si>
   <si>
+    <t>Mario Castañeda</t>
+  </si>
+  <si>
     <t>P082</t>
   </si>
   <si>
@@ -374,12 +419,18 @@
     <t>P091</t>
   </si>
   <si>
+    <t xml:space="preserve">Fernando Rivera </t>
+  </si>
+  <si>
     <t>P092</t>
   </si>
   <si>
     <t>P093</t>
   </si>
   <si>
+    <t>Ana Huayta</t>
+  </si>
+  <si>
     <t>P094</t>
   </si>
   <si>
@@ -422,6 +473,9 @@
     <t>P105</t>
   </si>
   <si>
+    <t>Angi Plata</t>
+  </si>
+  <si>
     <t>P106</t>
   </si>
   <si>
@@ -443,6 +497,9 @@
     <t>P112</t>
   </si>
   <si>
+    <t>Carlos Loaiza</t>
+  </si>
+  <si>
     <t>P113</t>
   </si>
   <si>
@@ -450,6 +507,9 @@
   </si>
   <si>
     <t>P115</t>
+  </si>
+  <si>
+    <t>María Cuba</t>
   </si>
   <si>
     <t>P116</t>
@@ -846,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -964,12 +1024,12 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -980,40 +1040,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1024,7 +1084,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1035,40 +1095,40 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1079,29 +1139,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1112,29 +1172,29 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1145,7 +1205,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1156,51 +1216,51 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1211,40 +1271,40 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1255,51 +1315,51 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1310,18 +1370,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1332,7 +1392,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1343,62 +1403,62 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -1409,18 +1469,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1431,29 +1491,29 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1464,29 +1524,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -1497,18 +1557,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1519,7 +1579,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -1530,40 +1590,40 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -1574,51 +1634,51 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -1629,7 +1689,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -1640,73 +1700,73 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -1717,51 +1777,51 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -1772,18 +1832,18 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -1794,18 +1854,18 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -1816,18 +1876,18 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -1838,7 +1898,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -1849,29 +1909,29 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -1882,18 +1942,18 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -1904,29 +1964,29 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -1937,29 +1997,29 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1970,7 +2030,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -1981,7 +2041,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -1992,51 +2052,51 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -2047,40 +2107,40 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -2091,29 +2151,29 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -2124,62 +2184,62 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
